--- a/biology/Zoologie/Digrammia_pallorata/Digrammia_pallorata.xlsx
+++ b/biology/Zoologie/Digrammia_pallorata/Digrammia_pallorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digrammia pallorata est une espèce de papillons de la famille des Geometridae[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digrammia pallorata est une espèce de papillons de la famille des Geometridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon se rencontre en Amérique du Nord[2], et a été signalé dans l'Arizona, la Californie, le Colorado, le Nevada, le Nouveau-Mexique, le Texas et l'Utah.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se rencontre en Amérique du Nord, et a été signalé dans l'Arizona, la Californie, le Colorado, le Nevada, le Nouveau-Mexique, le Texas et l'Utah.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur des ailes antérieures est de 11 à 14 mm pour les mâles et de 14 à 16 mm pour les femelles.
 Les larves se nourrissent de Juniperus monosperma et de Juniperus pinhotii.
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Digrammia pallorata Ferguson (d), 2008[4].
-L'article rédigé par Alexander C. Ferguson (d) (1926-2002) a été publié en 2008 à titre posthume[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Digrammia pallorata Ferguson (d), 2008.
+L'article rédigé par Alexander C. Ferguson (d) (1926-2002) a été publié en 2008 à titre posthume.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Douglas C. Ferguson (éditeur), R. W. Hodges (éditeur) et al., « Geometroidea: Geometridae (part), Ennominae (Part - Abraxini, Cassymini, Macariini) », The Moths of North America North of Mexico, vol. 430, no 17.2,‎ 2008 (lire en ligne)</t>
         </is>
